--- a/Ontology/HPE_iLO_Ontology.xlsx
+++ b/Ontology/HPE_iLO_Ontology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rentla.in\Documents\Shrihari TCD Artifacts\current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CC9BA6-FF02-4F7F-B35C-4DEB853AADA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7467F4AC-E232-4DE6-A173-2C5191AE5D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StarterID_Registry_Tracker" sheetId="1" r:id="rId1"/>
@@ -1214,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1276,12 +1276,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1322,9 +1316,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1346,6 +1337,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1657,37 +1659,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="40" customWidth="1"/>
     <col min="4" max="4" width="64.5703125" style="17" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>134</v>
       </c>
       <c r="D3" s="24" t="s">
@@ -1695,282 +1697,282 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="34" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="35" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="35" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="35" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="35" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="35" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="35" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="35" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2015,15 +2017,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -2049,353 +2051,353 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="31" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="31" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="31" t="s">
         <v>149</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="31" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="31" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="31" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="31" t="s">
         <v>155</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="31" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2411,8 +2413,8 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,15 +2440,15 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -3866,7 +3868,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,8 +3876,8 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="71.85546875" style="54" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3884,17 +3886,17 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -3913,1057 +3915,1057 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="25" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E51" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="25" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="E64" s="28" t="s">
+      <c r="E64" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E65" s="26" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Ontology/HPE_iLO_Ontology.xlsx
+++ b/Ontology/HPE_iLO_Ontology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rentla.in\Documents\Shrihari TCD Artifacts\current\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rentla.in\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7467F4AC-E232-4DE6-A173-2C5191AE5D10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A6685-B663-4BCD-BDD3-6DAA057C7D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StarterID_Registry_Tracker" sheetId="1" r:id="rId1"/>
@@ -1337,6 +1337,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,8 +1348,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1652,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="140" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
@@ -1675,12 +1675,12 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
@@ -2017,15 +2017,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -2440,15 +2440,15 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -3866,7 +3866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0E32F5-78E4-4B53-9BD7-787923662A01}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
@@ -3876,7 +3876,7 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="71.85546875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="71.85546875" style="51" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3886,17 +3886,17 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="53"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -3932,7 +3932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>114</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>115</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>116</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>116</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>116</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>117</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>117</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>117</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>118</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>119</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>120</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>120</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>120</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>121</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>122</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>122</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>122</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>123</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>123</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>124</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>124</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>124</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>125</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>126</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>126</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>128</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>129</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>129</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>130</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>130</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>131</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>132</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>133</v>
       </c>

--- a/Ontology/HPE_iLO_Ontology.xlsx
+++ b/Ontology/HPE_iLO_Ontology.xlsx
@@ -5,28 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rentla.in\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rentla.in\Documents\Shrihari TCD Artifacts\current\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A6685-B663-4BCD-BDD3-6DAA057C7D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2985DC38-C9DF-42A6-AEA3-C83FC29707F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StarterID_Registry_Tracker" sheetId="1" r:id="rId1"/>
     <sheet name="Vocabulary" sheetId="7" r:id="rId2"/>
     <sheet name="Relationship_Cardinality_table" sheetId="6" r:id="rId3"/>
     <sheet name="Entity_Attribute_table" sheetId="5" r:id="rId4"/>
-    <sheet name="Classes_Properties" sheetId="2" r:id="rId5"/>
-    <sheet name="Relationships" sheetId="3" r:id="rId6"/>
-    <sheet name="Synonyms" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="277">
   <si>
     <t>Synonyms</t>
   </si>
@@ -94,9 +91,6 @@
     <t>AHS</t>
   </si>
   <si>
-    <t>Power Control</t>
-  </si>
-  <si>
     <t>Thermal Control</t>
   </si>
   <si>
@@ -145,208 +139,28 @@
     <t>Update Repository</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>Datatype</t>
-  </si>
-  <si>
-    <t>Cardinality</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>hasVersion</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
     <t>1..*</t>
   </si>
   <si>
-    <t>iLO generation</t>
-  </si>
-  <si>
-    <t>hasLicense</t>
-  </si>
-  <si>
-    <t>Enum</t>
-  </si>
-  <si>
     <t>0..1</t>
   </si>
   <si>
-    <t>License type</t>
-  </si>
-  <si>
-    <t>hasNetworkConfig</t>
-  </si>
-  <si>
-    <t>Object</t>
-  </si>
-  <si>
-    <t>Network settings</t>
-  </si>
-  <si>
-    <t>ProLiantServer</t>
-  </si>
-  <si>
-    <t>hasModel</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Server model</t>
-  </si>
-  <si>
-    <t>hasILO</t>
-  </si>
-  <si>
-    <t>Embedded iLO</t>
-  </si>
-  <si>
-    <t>NetworkConfig</t>
-  </si>
-  <si>
-    <t>ipAddress</t>
-  </si>
-  <si>
     <t>IP Address</t>
   </si>
   <si>
-    <t>macAddress</t>
-  </si>
-  <si>
     <t>MAC Address</t>
   </si>
   <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>licenseType</t>
-  </si>
-  <si>
-    <t>Standard/Advanced</t>
-  </si>
-  <si>
-    <t>SecurityService</t>
-  </si>
-  <si>
-    <t>hasTPM</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
-    <t>TPM availability</t>
-  </si>
-  <si>
-    <t>TelemetryService</t>
-  </si>
-  <si>
-    <t>supportsStreaming</t>
-  </si>
-  <si>
-    <t>Streaming support</t>
-  </si>
-  <si>
-    <t>UserAccount</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>User role</t>
-  </si>
-  <si>
-    <t>EventLog</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>Datetime</t>
-  </si>
-  <si>
-    <t>Event time</t>
-  </si>
-  <si>
-    <t>SecureErase</t>
-  </si>
-  <si>
-    <t>erasesSystemData</t>
-  </si>
-  <si>
-    <t>Erase system data</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
     <t>Relationship</t>
   </si>
   <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>Server embeds iLO</t>
-  </si>
-  <si>
-    <t>Optional license</t>
-  </si>
-  <si>
-    <t>Network interfaces</t>
-  </si>
-  <si>
-    <t>hasSecurityService</t>
-  </si>
-  <si>
-    <t>Security module</t>
-  </si>
-  <si>
-    <t>hasTelemetryService</t>
-  </si>
-  <si>
-    <t>Monitoring service</t>
-  </si>
-  <si>
-    <t>hasHealthSystem</t>
-  </si>
-  <si>
-    <t>ActiveHealthSystem</t>
-  </si>
-  <si>
-    <t>Health monitoring</t>
-  </si>
-  <si>
     <t>manages</t>
-  </si>
-  <si>
-    <t>0..*</t>
-  </si>
-  <si>
-    <t>System logs</t>
-  </si>
-  <si>
-    <t>Primary Term</t>
-  </si>
-  <si>
-    <t>Alias/Synonym</t>
-  </si>
-  <si>
-    <t>iLO NIC</t>
-  </si>
-  <si>
-    <t>Device Identity</t>
   </si>
   <si>
     <t>HPE iLO Ontology Worksheet | Preferred Terms</t>
@@ -1668,7 +1482,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="36"/>
@@ -1676,7 +1490,7 @@
     </row>
     <row r="2" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="52" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="53"/>
@@ -1684,296 +1498,296 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +1821,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -2018,7 +1832,7 @@
     </row>
     <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="54" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -2029,36 +1843,36 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>2</v>
@@ -2070,13 +1884,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>4</v>
@@ -2087,13 +1901,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>6</v>
@@ -2104,13 +1918,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>8</v>
@@ -2123,13 +1937,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>10</v>
@@ -2142,13 +1956,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>12</v>
@@ -2159,13 +1973,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>13</v>
@@ -2176,13 +1990,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>15</v>
@@ -2193,13 +2007,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>17</v>
@@ -2210,13 +2024,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>19</v>
@@ -2227,13 +2041,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>21</v>
@@ -2246,35 +2060,35 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B16" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>25</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="33"/>
@@ -2282,16 +2096,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="33"/>
@@ -2299,16 +2113,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>29</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="33"/>
@@ -2316,16 +2130,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="33"/>
@@ -2333,16 +2147,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="33"/>
@@ -2350,16 +2164,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="33"/>
@@ -2367,16 +2181,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="33"/>
@@ -2384,16 +2198,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B23" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>37</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>38</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="33"/>
@@ -2430,7 +2244,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="8"/>
@@ -2441,7 +2255,7 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="54" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -2452,39 +2266,39 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>3</v>
@@ -2498,16 +2312,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>14</v>
@@ -2521,16 +2335,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>11</v>
@@ -2544,16 +2358,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>1</v>
@@ -2567,19 +2381,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="12">
         <v>1</v>
@@ -2590,39 +2404,39 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>9</v>
@@ -2631,67 +2445,67 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="15">
         <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>1</v>
@@ -2705,19 +2519,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="F14" s="12">
         <v>1</v>
@@ -2728,16 +2542,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>9</v>
@@ -2751,16 +2565,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>1</v>
@@ -2774,19 +2588,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
@@ -2797,22 +2611,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G18" s="15">
         <v>1</v>
@@ -2820,16 +2634,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>1</v>
@@ -2843,19 +2657,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="12">
         <v>1</v>
@@ -2866,19 +2680,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="12">
         <v>1</v>
@@ -2889,16 +2703,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>181</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>1</v>
@@ -2912,19 +2726,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="15">
         <v>1</v>
@@ -2935,16 +2749,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>14</v>
@@ -2958,16 +2772,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>1</v>
@@ -2981,19 +2795,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="12">
         <v>1</v>
@@ -3004,22 +2818,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G27" s="12">
         <v>1</v>
@@ -3027,42 +2841,42 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="15">
         <v>1</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="15">
         <v>1</v>
@@ -3073,16 +2887,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>18</v>
@@ -3096,16 +2910,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>1</v>
@@ -3119,16 +2933,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>16</v>
@@ -3142,19 +2956,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="12">
         <v>1</v>
@@ -3165,19 +2979,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="15">
         <v>1</v>
@@ -3188,42 +3002,42 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="15">
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="F36" s="15">
         <v>1</v>
@@ -3234,16 +3048,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>1</v>
@@ -3257,16 +3071,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>3</v>
@@ -3280,22 +3094,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G39" s="12">
         <v>1</v>
@@ -3303,16 +3117,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>20</v>
@@ -3326,16 +3140,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>14</v>
@@ -3349,19 +3163,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="F42" s="15">
         <v>1</v>
@@ -3372,16 +3186,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>20</v>
@@ -3395,19 +3209,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F44" s="12">
         <v>1</v>
@@ -3418,19 +3232,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F45" s="12">
         <v>1</v>
@@ -3441,16 +3255,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>1</v>
@@ -3464,16 +3278,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>3</v>
@@ -3487,19 +3301,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="15">
         <v>1</v>
@@ -3510,16 +3324,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>9</v>
@@ -3533,16 +3347,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>14</v>
@@ -3556,16 +3370,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>16</v>
@@ -3579,16 +3393,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>1</v>
@@ -3602,16 +3416,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>9</v>
@@ -3620,24 +3434,24 @@
         <v>1</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" s="15">
         <v>1</v>
@@ -3648,16 +3462,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>1</v>
@@ -3671,16 +3485,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>3</v>
@@ -3694,19 +3508,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="12">
         <v>1</v>
@@ -3717,16 +3531,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>11</v>
@@ -3740,19 +3554,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="F59" s="15">
         <v>1</v>
@@ -3763,16 +3577,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>14</v>
@@ -3786,22 +3600,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E61" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G61" s="12">
         <v>1</v>
@@ -3809,22 +3623,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G62" s="12">
         <v>1</v>
@@ -3832,19 +3646,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" s="12">
         <v>1</v>
@@ -3882,7 +3696,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="4"/>
@@ -3891,7 +3705,7 @@
     </row>
     <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="54" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -3900,1073 +3714,1073 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>234</v>
+        <v>173</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4976,523 +4790,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>